--- a/24MgREACLIB_fixed.xlsx
+++ b/24MgREACLIB_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastian/Desktop/24Mg_agp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BCFA21-21FD-7940-9F41-2D0473AC43B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C1DD4A-7ABA-FC46-8B2C-F5BEE88B1780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="5" xr2:uid="{7DA7426B-8859-EC4A-951B-021C46F8798E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19240" activeTab="5" xr2:uid="{7DA7426B-8859-EC4A-951B-021C46F8798E}"/>
   </bookViews>
   <sheets>
     <sheet name="nacr" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="ths8" sheetId="5" r:id="rId5"/>
     <sheet name="il10" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,19 +38,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="3">
   <si>
     <t>T9</t>
   </si>
   <si>
     <t>Rate</t>
   </si>
+  <si>
+    <t> 0.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -67,6 +72,12 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFD1D2D3"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -90,11 +101,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -110,6 +123,1034 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'il10'!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'il10'!$G$2:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2.9743868613368732E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7423742899832255E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2009266263237517E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5959343176767246E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10301855597880122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23945001582378631</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34145769785550723</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33253006033188293</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32690949170307315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3582489652423349</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39382669556187117</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52771023207784695</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62836048284196766</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.71164788541500279</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77897016929854535</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83003718276963256</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86490699919533898</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8843516548260516</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.88977486350036872</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.86608196447037156</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.80992557706111246</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.7361486235819994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.65614594491360057</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.57755511672122428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9689-BE45-AF09-55D2C009E266}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1358209951"/>
+        <c:axId val="1358349231"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1358209951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358349231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1358349231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358209951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B957C823-E43A-9A40-9C97-994F36915F5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1844,15 +2885,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F0A7B6-5764-B94C-860F-02DAAA927816}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="B2" sqref="B2:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1860,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1870,8 +2911,21 @@
       <c r="C2" s="2">
         <v>2.0762880000000001E-91</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="4">
+        <f>'il10'!C2/'ths8'!C2</f>
+        <v>2.9743868613368732E-3</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="4">
+        <v>3.51E-95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1881,8 +2935,21 @@
       <c r="C3" s="2">
         <v>3.4214759999999999E-62</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G3" s="4">
+        <f>'il10'!C3/'ths8'!C3</f>
+        <v>1.7423742899832255E-3</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="T3" s="4">
+        <v>1.99E-65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1892,8 +2959,21 @@
       <c r="C4" s="2">
         <v>6.9060119999999995E-47</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="4">
+        <f>'il10'!C4/'ths8'!C4</f>
+        <v>3.2009266263237517E-3</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="T4" s="4">
+        <v>4.0200000000000001E-50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1903,8 +2983,21 @@
       <c r="C5" s="2">
         <v>1.4715360000000001E-30</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="4">
+        <f>'il10'!C5/'ths8'!C5</f>
+        <v>2.5959343176767246E-2</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="T5" s="4">
+        <v>3.1899999999999998E-34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1914,8 +3007,21 @@
       <c r="C6" s="2">
         <v>5.1879639999999998E-22</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G6" s="4">
+        <f>'il10'!C6/'ths8'!C6</f>
+        <v>0.10301855597880122</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="T6" s="4">
+        <v>3.5200000000000001E-25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1925,8 +3031,21 @@
       <c r="C7" s="2">
         <v>9.4576770000000003E-17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="4">
+        <f>'il10'!C7/'ths8'!C7</f>
+        <v>0.23945001582378631</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="4">
+        <v>4.4400000000000001E-19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1936,8 +3055,21 @@
       <c r="C8" s="2">
         <v>2.9412910000000002E-13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G8" s="4">
+        <f>'il10'!C8/'ths8'!C8</f>
+        <v>0.34145769785550723</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="T8" s="4">
+        <v>5.8400000000000002E-15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1947,8 +3079,21 @@
       <c r="C9" s="2">
         <v>7.7929650000000001E-11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G9" s="4">
+        <f>'il10'!C9/'ths8'!C9</f>
+        <v>0.33253006033188293</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="T9" s="4">
+        <v>5.3400000000000003E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1958,8 +3103,21 @@
       <c r="C10" s="2">
         <v>5.5642479999999999E-9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="4">
+        <f>'il10'!C10/'ths8'!C10</f>
+        <v>0.32690949170307315</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="T10" s="4">
+        <v>9.2200000000000002E-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1969,8 +3127,21 @@
       <c r="C11" s="2">
         <v>1.8136489999999999E-7</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="4">
+        <f>'il10'!C11/'ths8'!C11</f>
+        <v>0.3582489652423349</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="T11" s="4">
+        <v>5.2399999999999999E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1980,8 +3151,21 @@
       <c r="C12" s="2">
         <v>3.1487739999999999E-6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <f>'il10'!C12/'ths8'!C12</f>
+        <v>0.39382669556187117</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
+        <v>1.3599999999999999E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1991,8 +3175,21 @@
       <c r="C13" s="2">
         <v>2.3318559999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G13" s="4">
+        <f>'il10'!C13/'ths8'!C13</f>
+        <v>0.52771023207784695</v>
+      </c>
+      <c r="S13" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="T13">
+        <v>2.8991300000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2002,8 +3199,21 @@
       <c r="C14" s="2">
         <v>2.7769870000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <f>'il10'!C14/'ths8'!C14</f>
+        <v>0.62836048284196766</v>
+      </c>
+      <c r="S14" s="5">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>5.0290800000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2013,8 +3223,21 @@
       <c r="C15" s="2">
         <v>58.807450000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G15" s="4">
+        <f>'il10'!C15/'ths8'!C15</f>
+        <v>0.71164788541500279</v>
+      </c>
+      <c r="S15" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="T15">
+        <v>124.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2024,8 +3247,21 @@
       <c r="C16" s="2">
         <v>504.90859999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4">
+        <f>'il10'!C16/'ths8'!C16</f>
+        <v>0.77897016929854535</v>
+      </c>
+      <c r="S16" s="5">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>1131.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2035,8 +3271,21 @@
       <c r="C17" s="2">
         <v>2530.3310000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G17" s="4">
+        <f>'il10'!C17/'ths8'!C17</f>
+        <v>0.83003718276963256</v>
+      </c>
+      <c r="S17" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="T17">
+        <v>5704.32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2046,8 +3295,21 @@
       <c r="C18" s="2">
         <v>8932.18</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4">
+        <f>'il10'!C18/'ths8'!C18</f>
+        <v>0.86490699919533898</v>
+      </c>
+      <c r="S18" s="5">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <v>19546.099999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2057,8 +3319,21 @@
       <c r="C19" s="2">
         <v>24736.66</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G19" s="4">
+        <f>'il10'!C19/'ths8'!C19</f>
+        <v>0.8843516548260516</v>
+      </c>
+      <c r="S19" s="5">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>111274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2068,8 +3343,21 @@
       <c r="C20" s="2">
         <v>57450.93</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4">
+        <f>'il10'!C20/'ths8'!C20</f>
+        <v>0.88977486350036872</v>
+      </c>
+      <c r="S20" s="5">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>353848</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2079,8 +3367,21 @@
       <c r="C21" s="2">
         <v>214828.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4">
+        <f>'il10'!C21/'ths8'!C21</f>
+        <v>0.86608196447037156</v>
+      </c>
+      <c r="S21" s="5">
+        <v>7</v>
+      </c>
+      <c r="T21">
+        <v>800914</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2090,8 +3391,21 @@
       <c r="C22" s="2">
         <v>578853</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F22" s="1">
+        <v>7</v>
+      </c>
+      <c r="G22" s="4">
+        <f>'il10'!C22/'ths8'!C22</f>
+        <v>0.80992557706111246</v>
+      </c>
+      <c r="S22" s="5">
+        <v>8</v>
+      </c>
+      <c r="T22" s="4">
+        <v>1460000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2101,8 +3415,21 @@
       <c r="C23" s="2">
         <v>1260031</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F23" s="1">
+        <v>8</v>
+      </c>
+      <c r="G23" s="4">
+        <f>'il10'!C23/'ths8'!C23</f>
+        <v>0.7361486235819994</v>
+      </c>
+      <c r="S23" s="5">
+        <v>9</v>
+      </c>
+      <c r="T23" s="4">
+        <v>2320000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2112,8 +3439,21 @@
       <c r="C24" s="2">
         <v>2370570</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="F24" s="1">
+        <v>9</v>
+      </c>
+      <c r="G24" s="4">
+        <f>'il10'!C24/'ths8'!C24</f>
+        <v>0.65614594491360057</v>
+      </c>
+      <c r="S24" s="5">
+        <v>10</v>
+      </c>
+      <c r="T24" s="4">
+        <v>3350000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2123,8 +3463,16 @@
       <c r="C25" s="2">
         <v>4023793</v>
       </c>
+      <c r="F25" s="1">
+        <v>10</v>
+      </c>
+      <c r="G25" s="4">
+        <f>'il10'!C25/'ths8'!C25</f>
+        <v>0.57755511672122428</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>